--- a/resultados/Venda de Drone/Sem SPAD 1 Drones/vel40/field_64ha_100ha_14%_6m_0_LM/Planilha_Unificada.xlsx
+++ b/resultados/Venda de Drone/Sem SPAD 1 Drones/vel40/field_64ha_100ha_14%_6m_0_LM/Planilha_Unificada.xlsx
@@ -1602,28 +1602,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>216.9604685370673</v>
+        <v>295.2003078622951</v>
       </c>
       <c r="AB2" t="n">
-        <v>296.8548846726186</v>
+        <v>403.9060845356365</v>
       </c>
       <c r="AC2" t="n">
-        <v>268.5234711179988</v>
+        <v>365.3578547133046</v>
       </c>
       <c r="AD2" t="n">
-        <v>216960.4685370673</v>
+        <v>295200.3078622951</v>
       </c>
       <c r="AE2" t="n">
-        <v>296854.8846726186</v>
+        <v>403906.0845356365</v>
       </c>
       <c r="AF2" t="n">
         <v>1.127642862682919e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>14</v>
+        <v>13.91927083333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>268523.4711179988</v>
+        <v>365357.8547133046</v>
       </c>
     </row>
     <row r="3">
@@ -1708,28 +1708,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>156.0696410004678</v>
+        <v>214.7666032037763</v>
       </c>
       <c r="AB3" t="n">
-        <v>213.5413681233646</v>
+        <v>293.8531413371038</v>
       </c>
       <c r="AC3" t="n">
-        <v>193.1612796569243</v>
+        <v>265.8082099534513</v>
       </c>
       <c r="AD3" t="n">
-        <v>156069.6410004678</v>
+        <v>214766.6032037763</v>
       </c>
       <c r="AE3" t="n">
-        <v>213541.3681233646</v>
+        <v>293853.1413371037</v>
       </c>
       <c r="AF3" t="n">
         <v>1.439188105108389e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>11</v>
+        <v>10.90494791666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>193161.2796569242</v>
+        <v>265808.2099534513</v>
       </c>
     </row>
   </sheetData>
@@ -2005,28 +2005,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>166.6300579920536</v>
+        <v>224.7133528927015</v>
       </c>
       <c r="AB2" t="n">
-        <v>227.9905965439615</v>
+        <v>307.4627230811102</v>
       </c>
       <c r="AC2" t="n">
-        <v>206.2314939966834</v>
+        <v>278.1189123169821</v>
       </c>
       <c r="AD2" t="n">
-        <v>166630.0579920536</v>
+        <v>224713.3528927015</v>
       </c>
       <c r="AE2" t="n">
-        <v>227990.5965439615</v>
+        <v>307462.7230811102</v>
       </c>
       <c r="AF2" t="n">
         <v>1.480196613332569e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>12</v>
+        <v>11.6015625</v>
       </c>
       <c r="AH2" t="n">
-        <v>206231.4939966834</v>
+        <v>278118.9123169821</v>
       </c>
     </row>
     <row r="3">
@@ -2111,28 +2111,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>163.2844297445482</v>
+        <v>211.6540211061644</v>
       </c>
       <c r="AB3" t="n">
-        <v>223.4129603770256</v>
+        <v>289.5943691937226</v>
       </c>
       <c r="AC3" t="n">
-        <v>202.0907410007657</v>
+        <v>261.9558890462088</v>
       </c>
       <c r="AD3" t="n">
-        <v>163284.4297445482</v>
+        <v>211654.0211061644</v>
       </c>
       <c r="AE3" t="n">
-        <v>223412.9603770256</v>
+        <v>289594.3691937226</v>
       </c>
       <c r="AF3" t="n">
         <v>1.530843109707779e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>12</v>
+        <v>11.21744791666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>202090.7410007658</v>
+        <v>261955.8890462088</v>
       </c>
     </row>
   </sheetData>
@@ -2408,28 +2408,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>183.0957533461501</v>
+        <v>248.5841255242349</v>
       </c>
       <c r="AB2" t="n">
-        <v>250.5196873426364</v>
+        <v>340.123767299722</v>
       </c>
       <c r="AC2" t="n">
-        <v>226.6104399893175</v>
+        <v>307.6628323154434</v>
       </c>
       <c r="AD2" t="n">
-        <v>183095.7533461501</v>
+        <v>248584.1255242349</v>
       </c>
       <c r="AE2" t="n">
-        <v>250519.6873426363</v>
+        <v>340123.767299722</v>
       </c>
       <c r="AF2" t="n">
         <v>1.744350291080354e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>14</v>
+        <v>13.74348958333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>226610.4399893175</v>
+        <v>307662.8323154434</v>
       </c>
     </row>
   </sheetData>
@@ -2705,28 +2705,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>171.114244547614</v>
+        <v>227.9423455107821</v>
       </c>
       <c r="AB2" t="n">
-        <v>234.126058417625</v>
+        <v>311.8807732342664</v>
       </c>
       <c r="AC2" t="n">
-        <v>211.7813960003013</v>
+        <v>282.1153099642948</v>
       </c>
       <c r="AD2" t="n">
-        <v>171114.244547614</v>
+        <v>227942.3455107821</v>
       </c>
       <c r="AE2" t="n">
-        <v>234126.058417625</v>
+        <v>311880.7732342664</v>
       </c>
       <c r="AF2" t="n">
         <v>1.683389716754668e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>13</v>
+        <v>12.33072916666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>211781.3960003013</v>
+        <v>282115.3099642948</v>
       </c>
     </row>
   </sheetData>
@@ -3002,28 +3002,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>207.7995128086571</v>
+        <v>281.8094583380771</v>
       </c>
       <c r="AB2" t="n">
-        <v>284.3204608921711</v>
+        <v>385.5841334540142</v>
       </c>
       <c r="AC2" t="n">
-        <v>257.185315150979</v>
+        <v>348.7845249278926</v>
       </c>
       <c r="AD2" t="n">
-        <v>207799.5128086571</v>
+        <v>281809.4583380771</v>
       </c>
       <c r="AE2" t="n">
-        <v>284320.4608921711</v>
+        <v>385584.1334540142</v>
       </c>
       <c r="AF2" t="n">
         <v>1.747295594293924e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>16</v>
+        <v>15.71614583333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>257185.315150979</v>
+        <v>348784.5249278925</v>
       </c>
     </row>
   </sheetData>
@@ -3299,28 +3299,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>182.0432783757023</v>
+        <v>240.2295307609577</v>
       </c>
       <c r="AB2" t="n">
-        <v>249.0796446561516</v>
+        <v>328.6926421659039</v>
       </c>
       <c r="AC2" t="n">
-        <v>225.3078329557178</v>
+        <v>297.3226777207084</v>
       </c>
       <c r="AD2" t="n">
-        <v>182043.2783757023</v>
+        <v>240229.5307609577</v>
       </c>
       <c r="AE2" t="n">
-        <v>249079.6446561516</v>
+        <v>328692.6421659039</v>
       </c>
       <c r="AF2" t="n">
         <v>1.393162460693172e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>13</v>
+        <v>12.03125</v>
       </c>
       <c r="AH2" t="n">
-        <v>225307.8329557178</v>
+        <v>297322.6777207084</v>
       </c>
     </row>
     <row r="3">
@@ -3405,28 +3405,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>163.5619818175932</v>
+        <v>212.0734709228028</v>
       </c>
       <c r="AB3" t="n">
-        <v>223.7927193680989</v>
+        <v>290.1682789376667</v>
       </c>
       <c r="AC3" t="n">
-        <v>202.4342563267263</v>
+        <v>262.4750256496786</v>
       </c>
       <c r="AD3" t="n">
-        <v>163561.9818175932</v>
+        <v>212073.4709228028</v>
       </c>
       <c r="AE3" t="n">
-        <v>223792.7193680989</v>
+        <v>290168.2789376667</v>
       </c>
       <c r="AF3" t="n">
         <v>1.511597486775897e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>12</v>
+        <v>11.08723958333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>202434.2563267263</v>
+        <v>262475.0256496785</v>
       </c>
     </row>
   </sheetData>
@@ -3702,28 +3702,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>232.7944444834395</v>
+        <v>315.3986245251137</v>
       </c>
       <c r="AB2" t="n">
-        <v>318.5196291081521</v>
+        <v>431.5423124805462</v>
       </c>
       <c r="AC2" t="n">
-        <v>288.1205627512717</v>
+        <v>390.3565198508417</v>
       </c>
       <c r="AD2" t="n">
-        <v>232794.4444834396</v>
+        <v>315398.6245251137</v>
       </c>
       <c r="AE2" t="n">
-        <v>318519.6291081521</v>
+        <v>431542.3124805462</v>
       </c>
       <c r="AF2" t="n">
         <v>1.718757227090547e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>18</v>
+        <v>17.48046875</v>
       </c>
       <c r="AH2" t="n">
-        <v>288120.5627512717</v>
+        <v>390356.5198508417</v>
       </c>
     </row>
   </sheetData>
@@ -3999,28 +3999,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>161.7208668737784</v>
+        <v>219.251529575336</v>
       </c>
       <c r="AB2" t="n">
-        <v>221.2736246777141</v>
+        <v>299.9896154596557</v>
       </c>
       <c r="AC2" t="n">
-        <v>200.1555804980194</v>
+        <v>271.3590275983445</v>
       </c>
       <c r="AD2" t="n">
-        <v>161720.8668737785</v>
+        <v>219251.529575336</v>
       </c>
       <c r="AE2" t="n">
-        <v>221273.6246777141</v>
+        <v>299989.6154596558</v>
       </c>
       <c r="AF2" t="n">
         <v>1.606556016341426e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>12</v>
+        <v>11.62109375</v>
       </c>
       <c r="AH2" t="n">
-        <v>200155.5804980193</v>
+        <v>271359.0275983445</v>
       </c>
     </row>
     <row r="3">
@@ -4105,28 +4105,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>162.003803592975</v>
+        <v>219.5344662945325</v>
       </c>
       <c r="AB3" t="n">
-        <v>221.6607511792057</v>
+        <v>300.3767419611473</v>
       </c>
       <c r="AC3" t="n">
-        <v>200.5057601895441</v>
+        <v>271.7092072898693</v>
       </c>
       <c r="AD3" t="n">
-        <v>162003.803592975</v>
+        <v>219534.4662945325</v>
       </c>
       <c r="AE3" t="n">
-        <v>221660.7511792057</v>
+        <v>300376.7419611473</v>
       </c>
       <c r="AF3" t="n">
         <v>1.606154456215223e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>12</v>
+        <v>11.62760416666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>200505.7601895441</v>
+        <v>271709.2072898693</v>
       </c>
     </row>
   </sheetData>
@@ -4402,28 +4402,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>163.7658566651465</v>
+        <v>221.5709140392402</v>
       </c>
       <c r="AB2" t="n">
-        <v>224.0716699288447</v>
+        <v>303.1630996071888</v>
       </c>
       <c r="AC2" t="n">
-        <v>202.6865842374641</v>
+        <v>274.2296388728509</v>
       </c>
       <c r="AD2" t="n">
-        <v>163765.8566651465</v>
+        <v>221570.9140392402</v>
       </c>
       <c r="AE2" t="n">
-        <v>224071.6699288447</v>
+        <v>303163.0996071888</v>
       </c>
       <c r="AF2" t="n">
         <v>1.537294614381735e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>12</v>
+        <v>11.46484375</v>
       </c>
       <c r="AH2" t="n">
-        <v>202686.5842374641</v>
+        <v>274229.6388728509</v>
       </c>
     </row>
     <row r="3">
@@ -4508,28 +4508,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>162.5162685159648</v>
+        <v>220.3213258900585</v>
       </c>
       <c r="AB3" t="n">
-        <v>222.3619282951968</v>
+        <v>301.4533579735408</v>
       </c>
       <c r="AC3" t="n">
-        <v>201.1400179456935</v>
+        <v>272.6830725810803</v>
       </c>
       <c r="AD3" t="n">
-        <v>162516.2685159648</v>
+        <v>220321.3258900585</v>
       </c>
       <c r="AE3" t="n">
-        <v>222361.9282951968</v>
+        <v>301453.3579735408</v>
       </c>
       <c r="AF3" t="n">
         <v>1.559143415103915e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>12</v>
+        <v>11.30208333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>201140.0179456935</v>
+        <v>272683.0725810803</v>
       </c>
     </row>
   </sheetData>
@@ -4805,28 +4805,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>207.0052881747137</v>
+        <v>265.5491436464197</v>
       </c>
       <c r="AB2" t="n">
-        <v>283.2337677092922</v>
+        <v>363.3360535384328</v>
       </c>
       <c r="AC2" t="n">
-        <v>256.2023344402903</v>
+        <v>328.6597705340779</v>
       </c>
       <c r="AD2" t="n">
-        <v>207005.2881747137</v>
+        <v>265549.1436464197</v>
       </c>
       <c r="AE2" t="n">
-        <v>283233.7677092922</v>
+        <v>363336.0535384328</v>
       </c>
       <c r="AF2" t="n">
         <v>1.21597055438227e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>14</v>
+        <v>13.17708333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>256202.3344402903</v>
+        <v>328659.7705340779</v>
       </c>
     </row>
     <row r="3">
@@ -4911,28 +4911,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>154.133176583008</v>
+        <v>212.6760210248535</v>
       </c>
       <c r="AB3" t="n">
-        <v>210.8918120766166</v>
+        <v>290.9927145699265</v>
       </c>
       <c r="AC3" t="n">
-        <v>190.7645935206018</v>
+        <v>263.2207783022984</v>
       </c>
       <c r="AD3" t="n">
-        <v>154133.176583008</v>
+        <v>212676.0210248535</v>
       </c>
       <c r="AE3" t="n">
-        <v>210891.8120766166</v>
+        <v>290992.7145699265</v>
       </c>
       <c r="AF3" t="n">
         <v>1.476117272591001e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>11</v>
+        <v>10.85286458333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>190764.5935206018</v>
+        <v>263220.7783022984</v>
       </c>
     </row>
   </sheetData>
@@ -5208,28 +5208,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>170.9372397996551</v>
+        <v>227.9883719271863</v>
       </c>
       <c r="AB2" t="n">
-        <v>233.8838727125695</v>
+        <v>311.9437486077328</v>
       </c>
       <c r="AC2" t="n">
-        <v>211.5623241590264</v>
+        <v>282.1722750565041</v>
       </c>
       <c r="AD2" t="n">
-        <v>170937.2397996551</v>
+        <v>227988.3719271863</v>
       </c>
       <c r="AE2" t="n">
-        <v>233883.8727125695</v>
+        <v>311943.7486077328</v>
       </c>
       <c r="AF2" t="n">
         <v>1.659848209085494e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>13</v>
+        <v>12.03125</v>
       </c>
       <c r="AH2" t="n">
-        <v>211562.3241590264</v>
+        <v>282172.2750565041</v>
       </c>
     </row>
   </sheetData>
@@ -5505,28 +5505,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>181.7360154214971</v>
+        <v>238.1084612444536</v>
       </c>
       <c r="AB2" t="n">
-        <v>248.6592339267235</v>
+        <v>325.7905012784415</v>
       </c>
       <c r="AC2" t="n">
-        <v>224.9275456362559</v>
+        <v>294.6975130863643</v>
       </c>
       <c r="AD2" t="n">
-        <v>181736.0154214971</v>
+        <v>238108.4612444536</v>
       </c>
       <c r="AE2" t="n">
-        <v>248659.2339267235</v>
+        <v>325790.5012784415</v>
       </c>
       <c r="AF2" t="n">
         <v>1.72813413487461e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>14</v>
+        <v>13.14453125</v>
       </c>
       <c r="AH2" t="n">
-        <v>224927.5456362559</v>
+        <v>294697.5130863643</v>
       </c>
     </row>
   </sheetData>
@@ -8815,28 +8815,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>195.108607915013</v>
+        <v>269.522181837453</v>
       </c>
       <c r="AB2" t="n">
-        <v>266.9562049334865</v>
+        <v>368.772139669479</v>
       </c>
       <c r="AC2" t="n">
-        <v>241.4782794100994</v>
+        <v>333.5770442343719</v>
       </c>
       <c r="AD2" t="n">
-        <v>195108.607915013</v>
+        <v>269522.181837453</v>
       </c>
       <c r="AE2" t="n">
-        <v>266956.2049334865</v>
+        <v>368772.139669479</v>
       </c>
       <c r="AF2" t="n">
         <v>1.747059961478541e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>15</v>
+        <v>14.60286458333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>241478.2794100994</v>
+        <v>333577.0442343719</v>
       </c>
     </row>
   </sheetData>
@@ -9112,28 +9112,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>272.3617274281693</v>
+        <v>372.622431983467</v>
       </c>
       <c r="AB2" t="n">
-        <v>372.6573312186074</v>
+        <v>509.8384503812774</v>
       </c>
       <c r="AC2" t="n">
-        <v>337.091438554952</v>
+        <v>461.1801842396468</v>
       </c>
       <c r="AD2" t="n">
-        <v>272361.7274281693</v>
+        <v>372622.431983467</v>
       </c>
       <c r="AE2" t="n">
-        <v>372657.3312186074</v>
+        <v>509838.4503812774</v>
       </c>
       <c r="AF2" t="n">
         <v>1.641549425243846e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>21</v>
+        <v>20.55338541666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>337091.438554952</v>
+        <v>461180.1842396468</v>
       </c>
     </row>
   </sheetData>
@@ -9409,28 +9409,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>162.5404347605538</v>
+        <v>220.2630459138562</v>
       </c>
       <c r="AB2" t="n">
-        <v>222.3949936171828</v>
+        <v>301.3736167389697</v>
       </c>
       <c r="AC2" t="n">
-        <v>201.1699275597567</v>
+        <v>272.6109417380191</v>
       </c>
       <c r="AD2" t="n">
-        <v>162540.4347605538</v>
+        <v>220263.0459138562</v>
       </c>
       <c r="AE2" t="n">
-        <v>222394.9936171828</v>
+        <v>301373.6167389697</v>
       </c>
       <c r="AF2" t="n">
         <v>1.574024329585741e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>12</v>
+        <v>11.51692708333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>201169.9275597567</v>
+        <v>272610.9417380191</v>
       </c>
     </row>
     <row r="3">
@@ -9515,28 +9515,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>162.3712007269971</v>
+        <v>219.9923266538142</v>
       </c>
       <c r="AB3" t="n">
-        <v>222.163440146392</v>
+        <v>301.0032067040897</v>
       </c>
       <c r="AC3" t="n">
-        <v>200.9604732272308</v>
+        <v>272.2758831169942</v>
       </c>
       <c r="AD3" t="n">
-        <v>162371.2007269971</v>
+        <v>219992.3266538142</v>
       </c>
       <c r="AE3" t="n">
-        <v>222163.440146392</v>
+        <v>301003.2067040897</v>
       </c>
       <c r="AF3" t="n">
         <v>1.580454940815169e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>12</v>
+        <v>11.46484375</v>
       </c>
       <c r="AH3" t="n">
-        <v>200960.4732272308</v>
+        <v>272275.8831169942</v>
       </c>
     </row>
   </sheetData>
@@ -9812,28 +9812,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>188.2741498558424</v>
+        <v>246.6248028058967</v>
       </c>
       <c r="AB2" t="n">
-        <v>257.6049979019243</v>
+        <v>337.4429355172753</v>
       </c>
       <c r="AC2" t="n">
-        <v>233.019538453125</v>
+        <v>305.2378553557415</v>
       </c>
       <c r="AD2" t="n">
-        <v>188274.1498558424</v>
+        <v>246624.8028058967</v>
       </c>
       <c r="AE2" t="n">
-        <v>257604.9979019242</v>
+        <v>337442.9355172753</v>
       </c>
       <c r="AF2" t="n">
         <v>1.310999809940003e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>13</v>
+        <v>12.49348958333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>233019.538453125</v>
+        <v>305237.8553557416</v>
       </c>
     </row>
     <row r="3">
@@ -9918,28 +9918,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>164.2912603500843</v>
+        <v>212.9397499259597</v>
       </c>
       <c r="AB3" t="n">
-        <v>224.7905504297509</v>
+        <v>291.3535600873177</v>
       </c>
       <c r="AC3" t="n">
-        <v>203.3368557923192</v>
+        <v>263.5471852299598</v>
       </c>
       <c r="AD3" t="n">
-        <v>164291.2603500843</v>
+        <v>212939.7499259597</v>
       </c>
       <c r="AE3" t="n">
-        <v>224790.5504297509</v>
+        <v>291353.5600873177</v>
       </c>
       <c r="AF3" t="n">
         <v>1.486401814520217e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>12</v>
+        <v>11.015625</v>
       </c>
       <c r="AH3" t="n">
-        <v>203336.8557923192</v>
+        <v>263547.1852299598</v>
       </c>
     </row>
   </sheetData>
@@ -10215,28 +10215,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>362.2069317166385</v>
+        <v>488.5208174984734</v>
       </c>
       <c r="AB2" t="n">
-        <v>495.5875034167607</v>
+        <v>668.4157345188152</v>
       </c>
       <c r="AC2" t="n">
-        <v>448.2893276520938</v>
+        <v>604.6230749437141</v>
       </c>
       <c r="AD2" t="n">
-        <v>362206.9317166384</v>
+        <v>488520.8174984734</v>
       </c>
       <c r="AE2" t="n">
-        <v>495587.5034167607</v>
+        <v>668415.7345188152</v>
       </c>
       <c r="AF2" t="n">
         <v>1.466369480280542e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>28</v>
+        <v>27.09635416666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>448289.3276520938</v>
+        <v>604623.0749437141</v>
       </c>
     </row>
   </sheetData>
@@ -10512,28 +10512,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>171.477337808289</v>
+        <v>237.544927413109</v>
       </c>
       <c r="AB2" t="n">
-        <v>234.6228586354245</v>
+        <v>325.0194494290383</v>
       </c>
       <c r="AC2" t="n">
-        <v>212.2307823025776</v>
+        <v>294.0000493432897</v>
       </c>
       <c r="AD2" t="n">
-        <v>171477.337808289</v>
+        <v>237544.927413109</v>
       </c>
       <c r="AE2" t="n">
-        <v>234622.8586354245</v>
+        <v>325019.4494290383</v>
       </c>
       <c r="AF2" t="n">
         <v>1.707136169486594e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>13</v>
+        <v>12.68880208333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>212230.7823025776</v>
+        <v>294000.0493432897</v>
       </c>
     </row>
   </sheetData>
@@ -10809,28 +10809,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>161.513967555351</v>
+        <v>218.8436552500833</v>
       </c>
       <c r="AB2" t="n">
-        <v>220.990535902488</v>
+        <v>299.4315438137001</v>
       </c>
       <c r="AC2" t="n">
-        <v>199.8995093181832</v>
+        <v>270.8542175270202</v>
       </c>
       <c r="AD2" t="n">
-        <v>161513.967555351</v>
+        <v>218843.6552500833</v>
       </c>
       <c r="AE2" t="n">
-        <v>220990.535902488</v>
+        <v>299431.5438137001</v>
       </c>
       <c r="AF2" t="n">
         <v>1.631633561014931e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>12</v>
+        <v>11.82291666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>199899.5093181832</v>
+        <v>270854.2175270202</v>
       </c>
     </row>
   </sheetData>
